--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1577,28 +1577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.6746776033983</v>
+        <v>338.4925704991804</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.3017117142236</v>
+        <v>463.140468195255</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.8736185261711</v>
+        <v>418.9389919324287</v>
       </c>
       <c r="AD2" t="n">
-        <v>240674.6776033983</v>
+        <v>338492.5704991804</v>
       </c>
       <c r="AE2" t="n">
-        <v>329301.7117142236</v>
+        <v>463140.468195255</v>
       </c>
       <c r="AF2" t="n">
         <v>7.682556691939693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>297873.6185261711</v>
+        <v>418938.9919324287</v>
       </c>
     </row>
     <row r="3">
@@ -1683,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.6946798321555</v>
+        <v>301.7240514575889</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.3864884901313</v>
+        <v>412.8321583299724</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.4815323957333</v>
+        <v>373.4320365525323</v>
       </c>
       <c r="AD3" t="n">
-        <v>213694.6798321556</v>
+        <v>301724.0514575889</v>
       </c>
       <c r="AE3" t="n">
-        <v>292386.4884901313</v>
+        <v>412832.1583299724</v>
       </c>
       <c r="AF3" t="n">
         <v>8.569784408751837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>264481.5323957333</v>
+        <v>373432.0365525323</v>
       </c>
     </row>
   </sheetData>
@@ -1980,28 +1980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.5414835977597</v>
+        <v>307.3128096800626</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.0721462930331</v>
+        <v>420.4789438885726</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.5789449627075</v>
+        <v>380.3490236297506</v>
       </c>
       <c r="AD2" t="n">
-        <v>210541.4835977597</v>
+        <v>307312.8096800626</v>
       </c>
       <c r="AE2" t="n">
-        <v>288072.1462930331</v>
+        <v>420478.9438885726</v>
       </c>
       <c r="AF2" t="n">
         <v>9.271869918439809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>260578.9449627075</v>
+        <v>380349.0236297506</v>
       </c>
     </row>
     <row r="3">
@@ -2086,28 +2086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.644150583893</v>
+        <v>296.7017731271641</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.8443756759225</v>
+        <v>405.9604555510028</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.4683510501067</v>
+        <v>367.2161594422921</v>
       </c>
       <c r="AD3" t="n">
-        <v>209644.1505838929</v>
+        <v>296701.7731271641</v>
       </c>
       <c r="AE3" t="n">
-        <v>286844.3756759226</v>
+        <v>405960.4555510028</v>
       </c>
       <c r="AF3" t="n">
         <v>9.464827793952652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>259468.3510501067</v>
+        <v>367216.1594422921</v>
       </c>
     </row>
   </sheetData>
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.7405727697175</v>
+        <v>303.1939049405</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.9763047644143</v>
+        <v>414.8432767106506</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.5876890115564</v>
+        <v>375.251216617581</v>
       </c>
       <c r="AD2" t="n">
-        <v>209740.5727697175</v>
+        <v>303193.9049405</v>
       </c>
       <c r="AE2" t="n">
-        <v>286976.3047644143</v>
+        <v>414843.2767106506</v>
       </c>
       <c r="AF2" t="n">
         <v>1.246297175116559e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>259587.6890115565</v>
+        <v>375251.216617581</v>
       </c>
     </row>
   </sheetData>
@@ -2680,28 +2680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.2304368742598</v>
+        <v>288.5062482228678</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.0688496253278</v>
+        <v>394.7469768159035</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.5303488892497</v>
+        <v>357.0728793794544</v>
       </c>
       <c r="AD2" t="n">
-        <v>203230.4368742598</v>
+        <v>288506.2482228678</v>
       </c>
       <c r="AE2" t="n">
-        <v>278068.8496253278</v>
+        <v>394746.9768159034</v>
       </c>
       <c r="AF2" t="n">
         <v>1.125788395317331e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>251530.3488892497</v>
+        <v>357072.8793794544</v>
       </c>
     </row>
   </sheetData>
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.3283021888935</v>
+        <v>319.0578118730644</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.3581709027225</v>
+        <v>436.5489740419647</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.9787244166684</v>
+        <v>394.8853526597321</v>
       </c>
       <c r="AD2" t="n">
-        <v>217328.3021888935</v>
+        <v>319057.8118730644</v>
       </c>
       <c r="AE2" t="n">
-        <v>297358.1709027225</v>
+        <v>436548.9740419647</v>
       </c>
       <c r="AF2" t="n">
         <v>1.334930629076877e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>268978.7244166684</v>
+        <v>394885.352659732</v>
       </c>
     </row>
   </sheetData>
@@ -3274,28 +3274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.8938684529496</v>
+        <v>309.9489900224391</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.2907830317977</v>
+        <v>424.0858821330806</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.4903995285104</v>
+        <v>383.6117207505724</v>
       </c>
       <c r="AD2" t="n">
-        <v>212893.8684529497</v>
+        <v>309948.9900224391</v>
       </c>
       <c r="AE2" t="n">
-        <v>291290.7830317977</v>
+        <v>424085.8821330806</v>
       </c>
       <c r="AF2" t="n">
         <v>8.847104170724281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.93229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>263490.3995285104</v>
+        <v>383611.7207505724</v>
       </c>
     </row>
     <row r="3">
@@ -3380,28 +3380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.9242693997016</v>
+        <v>298.2373078814407</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.5958907145675</v>
+        <v>408.0614419448162</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.0527039517307</v>
+        <v>369.116630643433</v>
       </c>
       <c r="AD3" t="n">
-        <v>210924.2693997016</v>
+        <v>298237.3078814407</v>
       </c>
       <c r="AE3" t="n">
-        <v>288595.8907145675</v>
+        <v>408061.4419448162</v>
       </c>
       <c r="AF3" t="n">
         <v>9.169962530785702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>261052.7039517307</v>
+        <v>369116.630643433</v>
       </c>
     </row>
   </sheetData>
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.1214987957609</v>
+        <v>336.327388315744</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.389410428688</v>
+        <v>460.177970410781</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.8617193282304</v>
+        <v>416.2592307786131</v>
       </c>
       <c r="AD2" t="n">
-        <v>226121.4987957609</v>
+        <v>336327.3883157441</v>
       </c>
       <c r="AE2" t="n">
-        <v>309389.410428688</v>
+        <v>460177.970410781</v>
       </c>
       <c r="AF2" t="n">
         <v>1.372654827801991e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>279861.7193282304</v>
+        <v>416259.2307786131</v>
       </c>
     </row>
   </sheetData>
@@ -3974,28 +3974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.3661275802884</v>
+        <v>292.594801824924</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.3592399862247</v>
+        <v>400.3411162284915</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.4112704157047</v>
+        <v>362.133121977929</v>
       </c>
       <c r="AD2" t="n">
-        <v>206366.1275802884</v>
+        <v>292594.801824924</v>
       </c>
       <c r="AE2" t="n">
-        <v>282359.2399862247</v>
+        <v>400341.1162284915</v>
       </c>
       <c r="AF2" t="n">
         <v>1.028302263891957e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>255411.2704157047</v>
+        <v>362133.121977929</v>
       </c>
     </row>
   </sheetData>
@@ -4271,28 +4271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.8964787489271</v>
+        <v>295.6889728420947</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.8213780863694</v>
+        <v>404.5746975193757</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.5429869147139</v>
+        <v>365.9626562122799</v>
       </c>
       <c r="AD2" t="n">
-        <v>208896.4787489271</v>
+        <v>295688.9728420947</v>
       </c>
       <c r="AE2" t="n">
-        <v>285821.3780863694</v>
+        <v>404574.6975193757</v>
       </c>
       <c r="AF2" t="n">
         <v>9.640275679239613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>258542.986914714</v>
+        <v>365962.6562122799</v>
       </c>
     </row>
     <row r="3">
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.6518791267407</v>
+        <v>295.4443732199084</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.4867060923204</v>
+        <v>404.2400255253265</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.2402555460618</v>
+        <v>365.6599248436277</v>
       </c>
       <c r="AD3" t="n">
-        <v>208651.8791267407</v>
+        <v>295444.3732199083</v>
       </c>
       <c r="AE3" t="n">
-        <v>285486.7060923204</v>
+        <v>404240.0255253265</v>
       </c>
       <c r="AF3" t="n">
         <v>9.700515557315015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>258240.2555460618</v>
+        <v>365659.9248436277</v>
       </c>
     </row>
   </sheetData>
@@ -4674,28 +4674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.6625762234229</v>
+        <v>334.9854301303472</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.4979805527518</v>
+        <v>458.3418440185042</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.769050479051</v>
+        <v>414.5983417121957</v>
       </c>
       <c r="AD2" t="n">
-        <v>227662.5762234229</v>
+        <v>334985.4301303472</v>
       </c>
       <c r="AE2" t="n">
-        <v>311497.9805527518</v>
+        <v>458341.8440185042</v>
       </c>
       <c r="AF2" t="n">
         <v>8.088606298250152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>281769.050479051</v>
+        <v>414598.3417121957</v>
       </c>
     </row>
     <row r="3">
@@ -4780,28 +4780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.687267550077</v>
+        <v>300.4854625333159</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.0081025618989</v>
+        <v>411.1374663210952</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.2346976859142</v>
+        <v>371.8990835704673</v>
       </c>
       <c r="AD3" t="n">
-        <v>212687.267550077</v>
+        <v>300485.4625333159</v>
       </c>
       <c r="AE3" t="n">
-        <v>291008.1025618989</v>
+        <v>411137.4663210952</v>
       </c>
       <c r="AF3" t="n">
         <v>8.778413502090759e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>263234.6976859142</v>
+        <v>371899.0835704672</v>
       </c>
     </row>
   </sheetData>
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.5209245035244</v>
+        <v>290.131282598677</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.8345517319829</v>
+        <v>396.9704205403426</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.1275348650246</v>
+        <v>359.0841207554559</v>
       </c>
       <c r="AD2" t="n">
-        <v>204520.9245035244</v>
+        <v>290131.282598677</v>
       </c>
       <c r="AE2" t="n">
-        <v>279834.5517319829</v>
+        <v>396970.4205403426</v>
       </c>
       <c r="AF2" t="n">
         <v>1.08691093653742e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>253127.5348650246</v>
+        <v>359084.1207554559</v>
       </c>
     </row>
   </sheetData>
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.2595176383362</v>
+        <v>295.234685906026</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.3721509759185</v>
+        <v>403.9531220917212</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.0910193740988</v>
+        <v>365.4004030710543</v>
       </c>
       <c r="AD2" t="n">
-        <v>201259.5176383362</v>
+        <v>295234.685906026</v>
       </c>
       <c r="AE2" t="n">
-        <v>275372.1509759185</v>
+        <v>403953.1220917212</v>
       </c>
       <c r="AF2" t="n">
         <v>1.203769939631637e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>249091.0193740988</v>
+        <v>365400.4030710543</v>
       </c>
     </row>
   </sheetData>
@@ -8588,28 +8588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.8306487707424</v>
+        <v>301.890322947268</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.7313066060034</v>
+        <v>413.0596583175317</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.461511730018</v>
+        <v>373.6378242605772</v>
       </c>
       <c r="AD2" t="n">
-        <v>208830.6487707424</v>
+        <v>301890.322947268</v>
       </c>
       <c r="AE2" t="n">
-        <v>285731.3066060034</v>
+        <v>413059.6583175317</v>
       </c>
       <c r="AF2" t="n">
         <v>1.28901994175069e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>258461.511730018</v>
+        <v>373637.8242605772</v>
       </c>
     </row>
   </sheetData>
@@ -8885,28 +8885,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.929195505874</v>
+        <v>363.2744611244401</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.4371278564423</v>
+        <v>497.0481442485885</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.2782160049985</v>
+        <v>449.6105669729544</v>
       </c>
       <c r="AD2" t="n">
-        <v>253929.1955058741</v>
+        <v>363274.4611244401</v>
       </c>
       <c r="AE2" t="n">
-        <v>347437.1278564422</v>
+        <v>497048.1442485885</v>
       </c>
       <c r="AF2" t="n">
         <v>1.388526019217285e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>314278.2160049985</v>
+        <v>449610.5669729544</v>
       </c>
     </row>
   </sheetData>
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.5110070355684</v>
+        <v>294.0276039578213</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.9257145654548</v>
+        <v>402.3015393174903</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.8282428596544</v>
+        <v>363.906445038785</v>
       </c>
       <c r="AD2" t="n">
-        <v>207511.0070355684</v>
+        <v>294027.6039578213</v>
       </c>
       <c r="AE2" t="n">
-        <v>283925.7145654547</v>
+        <v>402301.5393174903</v>
       </c>
       <c r="AF2" t="n">
         <v>9.957982436703964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>256828.2428596544</v>
+        <v>363906.445038785</v>
       </c>
     </row>
     <row r="3">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.6350764611348</v>
+        <v>294.1516733833877</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.0954718270714</v>
+        <v>402.471296579107</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.9817987264782</v>
+        <v>364.0600009056089</v>
       </c>
       <c r="AD3" t="n">
-        <v>207635.0764611349</v>
+        <v>294151.6733833877</v>
       </c>
       <c r="AE3" t="n">
-        <v>284095.4718270715</v>
+        <v>402471.2965791071</v>
       </c>
       <c r="AF3" t="n">
         <v>9.960348678931241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>256981.7987264783</v>
+        <v>364060.0009056089</v>
       </c>
     </row>
   </sheetData>
@@ -9585,28 +9585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.5027315393283</v>
+        <v>322.7645342424452</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.5427857703526</v>
+        <v>441.6206751168011</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.095895339041</v>
+        <v>399.4730177021632</v>
       </c>
       <c r="AD2" t="n">
-        <v>225502.7315393283</v>
+        <v>322764.5342424451</v>
       </c>
       <c r="AE2" t="n">
-        <v>308542.7857703526</v>
+        <v>441620.6751168011</v>
       </c>
       <c r="AF2" t="n">
         <v>8.413787394523615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>279095.895339041</v>
+        <v>399473.0177021633</v>
       </c>
     </row>
     <row r="3">
@@ -9691,28 +9691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.8807059979858</v>
+        <v>299.4403453269233</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.904529463344</v>
+        <v>409.7074908519918</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.2364480550104</v>
+        <v>370.6055829531519</v>
       </c>
       <c r="AD3" t="n">
-        <v>211880.7059979858</v>
+        <v>299440.3453269233</v>
       </c>
       <c r="AE3" t="n">
-        <v>289904.529463344</v>
+        <v>409707.4908519919</v>
       </c>
       <c r="AF3" t="n">
         <v>8.942596894206328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>262236.4480550104</v>
+        <v>370605.5829531519</v>
       </c>
     </row>
   </sheetData>
@@ -9988,28 +9988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.3135617950851</v>
+        <v>436.7586021611424</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.270508264209</v>
+        <v>597.5923879065058</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.9239895807646</v>
+        <v>540.5590091308924</v>
       </c>
       <c r="AD2" t="n">
-        <v>301313.5617950851</v>
+        <v>436758.6021611424</v>
       </c>
       <c r="AE2" t="n">
-        <v>412270.508264209</v>
+        <v>597592.3879065058</v>
       </c>
       <c r="AF2" t="n">
         <v>1.338120126909077e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>372923.9895807646</v>
+        <v>540559.0091308923</v>
       </c>
     </row>
   </sheetData>
@@ -10285,28 +10285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.386853521542</v>
+        <v>296.783766707909</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.914621665869</v>
+        <v>406.0726427854793</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.4862788262722</v>
+        <v>367.317639684566</v>
       </c>
       <c r="AD2" t="n">
-        <v>202386.853521542</v>
+        <v>296783.7667079089</v>
       </c>
       <c r="AE2" t="n">
-        <v>276914.621665869</v>
+        <v>406072.6427854793</v>
       </c>
       <c r="AF2" t="n">
         <v>1.160367199411373e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>250486.2788262722</v>
+        <v>367317.639684566</v>
       </c>
     </row>
   </sheetData>
@@ -10582,28 +10582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.4923104030818</v>
+        <v>291.4195221374796</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.1636447742781</v>
+        <v>398.7330467104496</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.3297811327574</v>
+        <v>360.6785243577494</v>
       </c>
       <c r="AD2" t="n">
-        <v>205492.3104030818</v>
+        <v>291419.5221374796</v>
       </c>
       <c r="AE2" t="n">
-        <v>281163.6447742781</v>
+        <v>398733.0467104496</v>
       </c>
       <c r="AF2" t="n">
         <v>1.055238372433873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>254329.7811327574</v>
+        <v>360678.5243577494</v>
       </c>
     </row>
   </sheetData>
